--- a/COVARIANCE-CORELLATION/Covariance_Correlation_17_Octobre_2023.xlsx
+++ b/COVARIANCE-CORELLATION/Covariance_Correlation_17_Octobre_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\DataScience\STATISTICS\COVARIANCE-CORELLATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\DataScience\Statistics\COVARIANCE-CORELLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04487647-80A9-4D54-A19D-F6B659A8AD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD8B33-FAEB-44A4-8731-638515BAFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{081140F3-9921-4F1D-97C4-55E36D65DDD9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{081140F3-9921-4F1D-97C4-55E36D65DDD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Covariance-Correlation" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Y- Mean(Y)</t>
   </si>
   <si>
-    <t>( X - Mean(X) )*  ( Y- Mean(Y) )</t>
-  </si>
-  <si>
     <t>Sum [ ( X - Mean(X) )*  ( Y- Mean(Y) ) ]</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>8.75 &gt; 0</t>
   </si>
   <si>
-    <t>( X - Mean(X) )*  ( X- Mean(X) )</t>
-  </si>
-  <si>
     <t>Sum [ ( X - Mean(X) ) *  ( X- Mean(X) ) ]</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>CORR(X,Y) = -0.94</t>
+  </si>
+  <si>
+    <t>( X - Mean(X) ) *  ( Y- Mean(Y) )</t>
+  </si>
+  <si>
+    <t>( X - Mean(X) ) *  ( X- Mean(X) )</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,7 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,10 +560,8 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,9 +569,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -592,9 +586,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A5C10-7016-4B20-82A9-B30A348C0C49}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -933,13 +929,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -949,23 +945,23 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>5</v>
       </c>
       <c r="E2" s="1">
@@ -990,13 +986,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>35</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8</v>
       </c>
       <c r="E3" s="1">
@@ -1021,13 +1017,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
       <c r="E4" s="1">
@@ -1052,13 +1048,13 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="1">
@@ -1083,13 +1079,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>35</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
       <c r="E6" s="1">
@@ -1123,17 +1119,17 @@
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1164,19 +1160,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1203,27 +1199,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="K14" s="2">
         <f xml:space="preserve"> SQRT(K12)</f>
         <v>5.7008771254956896</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <f xml:space="preserve"> SQRT(L12)</f>
         <v>1.8708286933869707</v>
       </c>
@@ -1236,15 +1232,15 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -1257,23 +1253,23 @@
         <v>0.82041265414236708</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="22" t="s">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="H20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K19" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="H20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FBC2F4-B75A-4DEA-A4E5-5E1B79D3E171}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1300,16 +1296,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>41</v>
+      <c r="A1" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1318,24 +1314,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>0.15</v>
@@ -1369,7 +1365,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>0.35</v>
@@ -1403,7 +1399,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>0.25</v>
@@ -1437,7 +1433,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>0.2</v>
@@ -1448,7 +1444,7 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <f xml:space="preserve"> C6 - C11</f>
         <v>-10</v>
       </c>
@@ -1471,7 +1467,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
@@ -1504,34 +1500,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="J8" s="4">
         <f>SUM(J3:J7)</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <f>SUM(K3:K7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
-        <v>37</v>
+      <c r="B11" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <f xml:space="preserve"> SUMPRODUCT(C3:C7,B3:B7)</f>
@@ -1543,8 +1539,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="23" t="s">
-        <v>38</v>
+      <c r="B12" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <f xml:space="preserve"> SUMPRODUCT(F3:F7,F3:F7,B3:B7)</f>
@@ -1556,106 +1552,106 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="B13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="30">
         <f xml:space="preserve"> SQRT(C12)</f>
         <v>7.0639932049797451</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <f xml:space="preserve"> SQRT(D12)</f>
         <v>3.1464265445104544</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="32">
+      <c r="B14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="28">
         <f>SUMPRODUCT(H3:H7,B3:B7)</f>
         <v>-21</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>51</v>
+      <c r="D14" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="31">
         <f xml:space="preserve"> C14 / (C13 *D13)</f>
         <v>-0.94482510543953502</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>42</v>
+      <c r="A18" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>43</v>
+      <c r="A19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="26"/>
+      <c r="A29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
